--- a/Work Logs and Status Updates/2019 03 15/Work Log 2019 03 15.xlsx
+++ b/Work Logs and Status Updates/2019 03 15/Work Log 2019 03 15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micki\Desktop\Senior Project\Work Logs and Status Updates\2019 03 15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micki\Desktop\Senior Project\GIT-Senior-Project\Work Logs and Status Updates\2019 03 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EBA76EC-0C16-496C-93DA-8C8BC97CE8E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17DCB5-EC54-42DF-96CC-5BD8385D3095}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F17EA643-B07A-44ED-AC58-56B22D792935}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{F17EA643-B07A-44ED-AC58-56B22D792935}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Started connecting sprite to have some basic animations</t>
+  </si>
+  <si>
+    <t>Shooting</t>
+  </si>
+  <si>
+    <t>Worked on the basics of shooting the user gun</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,11 +529,11 @@
       </c>
       <c r="H2" s="2">
         <f>SUM(F2:F90)</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="I2" s="4">
         <f>H2/60</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -554,16 +560,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>43531</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4">
+        <v>90</v>
+      </c>
+      <c r="F4" s="4">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">

--- a/Work Logs and Status Updates/2019 03 15/Work Log 2019 03 15.xlsx
+++ b/Work Logs and Status Updates/2019 03 15/Work Log 2019 03 15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micki\Desktop\Senior Project\GIT-Senior-Project\Work Logs and Status Updates\2019 03 15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17DCB5-EC54-42DF-96CC-5BD8385D3095}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B295ABAC-654B-492B-86AF-B3EDDCD993FB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{F17EA643-B07A-44ED-AC58-56B22D792935}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F17EA643-B07A-44ED-AC58-56B22D792935}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>Worked on the basics of shooting the user gun</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>Started working on the bullet and how it will look as it gets shoot through the barriel of the gun.</t>
+  </si>
+  <si>
+    <t>Player Health</t>
+  </si>
+  <si>
+    <t>If the player falls beyond a certain y position, the player dies.</t>
+  </si>
+  <si>
+    <t>Respond</t>
+  </si>
+  <si>
+    <t>When a player dies, we need to respond said player.</t>
   </si>
 </sst>
 </file>
@@ -118,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -141,6 +159,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,7 +480,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,19 +542,19 @@
         <v>60</v>
       </c>
       <c r="F2" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2">
         <f>ABS(E2/F2) * 100</f>
-        <v>200</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="H2" s="2">
         <f>SUM(F2:F90)</f>
-        <v>150</v>
+        <v>565</v>
       </c>
       <c r="I2" s="4">
         <f>H2/60</f>
-        <v>2.5</v>
+        <v>9.4166666666666661</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -553,11 +574,11 @@
         <v>60</v>
       </c>
       <c r="F3" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G27" si="0">ABS(E3/F3) * 100</f>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -577,188 +598,165 @@
         <v>90</v>
       </c>
       <c r="F4" s="4">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>43546</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>90</v>
+      </c>
+      <c r="F5" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2" t="e">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2" t="e">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>43546</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4">
+        <v>75</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2" t="e">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>43546</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4">
+        <v>130</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F9" s="4"/>
-      <c r="G9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F10" s="4"/>
-      <c r="G10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F11" s="4"/>
-      <c r="G11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" s="4"/>
-      <c r="G12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F13" s="4"/>
-      <c r="G13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F14" s="4"/>
-      <c r="G14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F15" s="4"/>
-      <c r="G15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F16" s="4"/>
-      <c r="G16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="4"/>
-      <c r="G17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="4"/>
-      <c r="G18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="4"/>
-      <c r="G19" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="4"/>
-      <c r="G20" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="4"/>
-      <c r="G21" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F22" s="4"/>
-      <c r="G22" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F23" s="4"/>
-      <c r="G23" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F24" s="4"/>
-      <c r="G24" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F25" s="4"/>
-      <c r="G25" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F26" s="4"/>
-      <c r="G26" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F27" s="4"/>
-      <c r="G27" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F28" s="4"/>
